--- a/3 четверть_2_Java Development Kit.xlsx
+++ b/3 четверть_2_Java Development Kit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14AC9B5-061A-4813-9DCD-307D18C06371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67A2F3-D8CB-47D9-A3B5-B305322AB4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19830" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="659">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -9874,17 +9874,199 @@
 private ThreadLocal&lt;Integer&gt; flagEaten = ThreadLocal.withInitial(()-&gt;3);</t>
     </r>
   </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Шаг 1</t>
+  </si>
+  <si>
+    <t>Шаг 2</t>
+  </si>
+  <si>
+    <t>Шаг 3</t>
+  </si>
+  <si>
+    <t>Открываем pom файл и прописываем &lt;dependencies&gt;</t>
+  </si>
+  <si>
+    <t>Подключаем внешнюю библиотеку, нажав на значек maven</t>
+  </si>
+  <si>
+    <t>Открываем build.gradle.kts файл и прописываем &lt;dependencies&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В google ищем корректную запись для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, чтобы подключить внешнюю библиотеку. Например:
+        &lt;dependency&gt;
+            &lt;groupId&gt;org.apache.commons&lt;/groupId&gt;
+            &lt;artifactId&gt;commons-math3&lt;/artifactId&gt;
+            &lt;version&gt;3.2&lt;/version&gt;
+        &lt;/dependency&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Подключаем внешнюю библиотеку, нажав на значек gradle</t>
+  </si>
+  <si>
+    <t>Gradle Вариант 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В google ищем корректную запись </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gradle(kotlin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, чтобы подключить внешнюю библиотеку. Например:
+// https://mvnrepository.com/artifact/com.google.guava/guava
+implementation("com.google.guava:guava:11.0.2")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В google ищем корректную запись </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gradle(kotlin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, чтобы подключить внешнюю библиотеку. Например:
+plugins {
+    id("java")
+    id("io.freefair.lombok") version "8.4"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Gradle Вариант 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10432,29 +10614,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10466,13 +10648,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10481,61 +10663,61 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10544,10 +10726,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10556,34 +10747,34 @@
     <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10592,7 +10783,19 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10601,40 +10804,19 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10643,10 +10825,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10664,7 +10846,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10673,7 +10855,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10688,7 +10870,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10697,7 +10879,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10706,13 +10888,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11703,6 +11891,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>298823</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>39277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2255102</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>1263950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884DF67B-B497-2D9A-6661-939AA40362B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325411" y="318009924"/>
+          <a:ext cx="1956279" cy="1224673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11972,10 +12204,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U431"/>
+  <dimension ref="A1:U443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:A435"/>
+    <sheetView tabSelected="1" topLeftCell="A432" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15564,8 +15796,95 @@
       </c>
       <c r="C431" s="62"/>
     </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A432" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C433" s="94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C434" s="94" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C435" s="94" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C437" s="95" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C438" s="95" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C439" s="94" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A440" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C441" s="94" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C442" s="95" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C443" s="94" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A101" r:id="rId1" xr:uid="{0889BDC3-4461-49B7-B3A7-5234BAE0C9D2}"/>
   </hyperlinks>

--- a/3 четверть_2_Java Development Kit.xlsx
+++ b/3 четверть_2_Java Development Kit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67A2F3-D8CB-47D9-A3B5-B305322AB4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710103B2-4FC6-4B4E-8CD5-81BAF24887A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19830" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -6339,30 +6339,6 @@
   </si>
   <si>
     <t>new Thread(() -&gt; {;}).start();</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> В случае несервисного thread, while(true) является опасной историей</t>
-    </r>
   </si>
   <si>
     <t>tic.setDaemon(true);</t>
@@ -7352,9 +7328,6 @@
     <t>Ситуация</t>
   </si>
   <si>
-    <t>Способ 3 : заставляем поток main ожидать другие потоки. Чере оператор ввода пользователя. Бесполезен в больших программах</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Runnable (один) -&gt; Thread (два или более) -&gt; </t>
     </r>
@@ -10048,17 +10021,52 @@
   <si>
     <t>Gradle Вариант 1</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В случае несервисного thread, while(true) в main потоке является опасной историей</t>
+    </r>
+  </si>
+  <si>
+    <t>Способ 3 : заставляем поток main ожидать другие потоки. Через оператор ввода пользователя. Бесполезен в больших программах</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10614,29 +10622,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10648,13 +10656,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10663,61 +10671,61 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10726,10 +10734,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10738,34 +10755,34 @@
     <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10774,7 +10791,19 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10783,40 +10812,19 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10825,10 +10833,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10846,7 +10851,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10855,7 +10860,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10870,7 +10875,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10879,7 +10884,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10888,7 +10893,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10898,6 +10906,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11749,7 +11760,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2694215" y="193089279"/>
+          <a:off x="2699017" y="194554048"/>
           <a:ext cx="2477138" cy="623076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11793,7 +11804,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2830287" y="194279286"/>
+          <a:off x="2835089" y="195744055"/>
           <a:ext cx="2159396" cy="601418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12206,8 +12217,8 @@
   </sheetPr>
   <dimension ref="A1:U443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14512,7 +14523,7 @@
         <v>435</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
@@ -14546,7 +14557,7 @@
       <c r="C283" s="51"/>
     </row>
     <row r="284" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C284" s="51" t="s">
+      <c r="C284" s="96" t="s">
         <v>442</v>
       </c>
     </row>
@@ -14574,38 +14585,38 @@
         <v>441</v>
       </c>
       <c r="C288" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289" spans="1:21" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B289" s="60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C289" s="58" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D289" s="59"/>
     </row>
     <row r="290" spans="1:21" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B290" s="54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C290" s="51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A291" s="65" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B291" s="66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C291" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D291" s="68" t="s">
         <v>232</v>
@@ -14613,53 +14624,53 @@
     </row>
     <row r="292" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="69"/>
-      <c r="B292" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="C292" s="71"/>
-      <c r="D292" s="72"/>
+      <c r="B292" s="95" t="s">
+        <v>657</v>
+      </c>
+      <c r="C292" s="70"/>
+      <c r="D292" s="71"/>
     </row>
     <row r="293" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="65" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B293" s="66" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C293" s="67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D293" s="68"/>
     </row>
     <row r="294" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="73"/>
+      <c r="A294" s="72"/>
       <c r="B294" s="61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C294" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="D294" s="74"/>
+        <v>499</v>
+      </c>
+      <c r="D294" s="73"/>
     </row>
     <row r="295" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="B295" s="76"/>
-      <c r="C295" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="D295" s="72"/>
+      <c r="A295" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="B295" s="75"/>
+      <c r="C295" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="D295" s="71"/>
     </row>
     <row r="296" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A296" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B296" s="54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>362</v>
@@ -14667,10 +14678,10 @@
     </row>
     <row r="297" spans="1:21" ht="290" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C297" s="54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.35">
@@ -14694,58 +14705,58 @@
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C300" s="52"/>
       <c r="D300" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:21" ht="348" x14ac:dyDescent="0.35">
       <c r="C302" s="54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B303" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C303" s="51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="C304" s="51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="306" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C306" s="51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C307" s="51" t="s">
         <v>462</v>
-      </c>
-      <c r="C307" s="51" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.35">
@@ -14769,52 +14780,52 @@
     </row>
     <row r="310" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C310" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C310" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:21" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B311" s="60" t="s">
+        <v>658</v>
+      </c>
+      <c r="C311" s="58" t="s">
         <v>506</v>
-      </c>
-      <c r="C311" s="58" t="s">
-        <v>508</v>
       </c>
       <c r="D311" s="59"/>
     </row>
     <row r="312" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="C312" s="51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C313" s="61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C314" s="51"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C315" s="51"/>
     </row>
@@ -14825,20 +14836,20 @@
       <c r="B316" s="36"/>
       <c r="C316" s="53"/>
       <c r="D316" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:21" ht="348" x14ac:dyDescent="0.35">
       <c r="B317" s="54" t="s">
-        <v>481</v>
-      </c>
-      <c r="C317" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C317" s="96" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C318" s="96" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="318" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C318" s="54" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.35">
@@ -14862,42 +14873,42 @@
     </row>
     <row r="322" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C322" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C322" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="323" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B323" s="57"/>
       <c r="C323" s="58" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D323" s="59"/>
     </row>
     <row r="324" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B324" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C324" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="325" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.35">
@@ -14907,48 +14918,48 @@
       <c r="B326" s="36"/>
       <c r="C326" s="53"/>
       <c r="D326" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="328" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="C328" s="54" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="1:21" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C329" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="331" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="B331" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="332" spans="1:21" ht="348" x14ac:dyDescent="0.35">
       <c r="C332" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="333" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C333" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.35">
@@ -14972,56 +14983,56 @@
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C335" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C335" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A336" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C336" s="54" t="s">
         <v>512</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C336" s="54" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="337" spans="1:21" ht="116" x14ac:dyDescent="0.35">
       <c r="B337" s="61" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C337" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="338" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="B338" s="61" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C338" s="54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="339" spans="1:21" ht="319" x14ac:dyDescent="0.35">
       <c r="B339" s="61" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C339" s="61" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="340" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="C340" s="54" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.35">
@@ -15045,23 +15056,23 @@
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C343" s="62" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="63" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C345" s="61" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.35">
@@ -15085,81 +15096,81 @@
     </row>
     <row r="348" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C348" s="62" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="349" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="A349" s="63" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C349" s="61" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B350" s="61" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C350" s="61" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="351" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A351" s="79" t="s">
-        <v>576</v>
-      </c>
-      <c r="B351" s="80"/>
-      <c r="C351" s="80"/>
-      <c r="D351" s="81"/>
+      <c r="A351" s="78" t="s">
+        <v>574</v>
+      </c>
+      <c r="B351" s="79"/>
+      <c r="C351" s="79"/>
+      <c r="D351" s="80"/>
     </row>
     <row r="352" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A352" s="82"/>
+      <c r="A352" s="81"/>
       <c r="B352" s="61"/>
       <c r="C352" s="61" t="s">
-        <v>577</v>
-      </c>
-      <c r="D352" s="83"/>
+        <v>575</v>
+      </c>
+      <c r="D352" s="82"/>
     </row>
     <row r="353" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A353" s="82"/>
+      <c r="A353" s="81"/>
       <c r="B353" s="61"/>
       <c r="C353" s="61" t="s">
-        <v>578</v>
-      </c>
-      <c r="D353" s="83"/>
+        <v>576</v>
+      </c>
+      <c r="D353" s="82"/>
     </row>
     <row r="354" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A354" s="82"/>
+      <c r="A354" s="81"/>
       <c r="B354" s="61"/>
       <c r="C354" s="61" t="s">
-        <v>579</v>
-      </c>
-      <c r="D354" s="83"/>
+        <v>577</v>
+      </c>
+      <c r="D354" s="82"/>
     </row>
     <row r="355" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A355" s="82"/>
+      <c r="A355" s="81"/>
       <c r="B355" s="61"/>
       <c r="C355" s="61" t="s">
-        <v>580</v>
-      </c>
-      <c r="D355" s="83"/>
+        <v>578</v>
+      </c>
+      <c r="D355" s="82"/>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A356" s="84"/>
-      <c r="B356" s="85"/>
-      <c r="C356" s="85" t="s">
-        <v>581</v>
-      </c>
-      <c r="D356" s="86"/>
+      <c r="A356" s="83"/>
+      <c r="B356" s="84"/>
+      <c r="C356" s="84" t="s">
+        <v>579</v>
+      </c>
+      <c r="D356" s="85"/>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
@@ -15168,17 +15179,17 @@
     </row>
     <row r="358" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C358" s="61" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:21" ht="319" x14ac:dyDescent="0.35">
       <c r="C359" s="61" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="360" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C360" s="61" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.35">
@@ -15202,41 +15213,41 @@
     </row>
     <row r="363" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C363" s="62" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="364" spans="1:21" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B364" s="57"/>
       <c r="C364" s="64" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D364" s="59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="366" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="B366" s="61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C366" s="61" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.35">
@@ -15244,35 +15255,35 @@
         <v>420</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F367" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="368" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="C368" s="61" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H368" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" ht="406" x14ac:dyDescent="0.35">
+      <c r="B369" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="C369" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I369" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="369" spans="1:21" ht="406" x14ac:dyDescent="0.35">
-      <c r="B369" s="92" t="s">
-        <v>642</v>
-      </c>
-      <c r="C369" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I369" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.35">
@@ -15296,21 +15307,21 @@
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C372" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="C372" s="62" t="s">
-        <v>554</v>
-      </c>
       <c r="D372" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="373" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C373" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.35">
@@ -15334,33 +15345,33 @@
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C376" s="62" t="s">
         <v>557</v>
       </c>
-      <c r="C376" s="62" t="s">
-        <v>559</v>
-      </c>
       <c r="D376" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="378" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C378" s="61" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="380" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C380" s="61" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.35">
@@ -15384,47 +15395,47 @@
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C383" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="D383" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="C383" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="384" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C384" s="61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="386" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B386" s="61" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C386" s="61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="387" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="B387" s="78" t="s">
-        <v>571</v>
+      <c r="B387" s="77" t="s">
+        <v>569</v>
       </c>
       <c r="C387" s="61" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="388" spans="1:21" ht="203" x14ac:dyDescent="0.35">
-      <c r="C388" s="92" t="s">
-        <v>641</v>
-      </c>
-      <c r="D388" s="92" t="s">
-        <v>640</v>
+      <c r="C388" s="91" t="s">
+        <v>639</v>
+      </c>
+      <c r="D388" s="91" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.35">
@@ -15448,26 +15459,26 @@
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C391" s="62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C392" s="61" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="393" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B393" s="61" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C393" s="61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.35">
@@ -15477,19 +15488,19 @@
       <c r="C394" s="61"/>
     </row>
     <row r="395" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B395" s="93" t="s">
-        <v>645</v>
-      </c>
-      <c r="C395" s="92" t="s">
+      <c r="B395" s="92" t="s">
         <v>643</v>
       </c>
+      <c r="C395" s="91" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="396" spans="1:21" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="C396" s="92" t="s">
-        <v>644</v>
+      <c r="C396" s="91" t="s">
+        <v>642</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.35">
@@ -15513,75 +15524,75 @@
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C399" s="62" t="s">
         <v>587</v>
       </c>
-      <c r="C399" s="62" t="s">
-        <v>589</v>
-      </c>
       <c r="D399" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="400" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B400" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
+      </c>
+      <c r="B400" s="77" t="s">
+        <v>589</v>
       </c>
       <c r="C400" s="61" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="401" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C401" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C401" s="61" t="s">
-        <v>596</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="403" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C403" s="61" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="404" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C404" s="61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="406" spans="1:21" ht="116" x14ac:dyDescent="0.35">
       <c r="C406" s="61" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="408" spans="1:21" x14ac:dyDescent="0.35">
@@ -15605,169 +15616,169 @@
     </row>
     <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C409" s="62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="410" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="C410" s="61" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A411" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="B411" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="C411" s="79"/>
+      <c r="D411" s="80"/>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A412" s="88" t="s">
+        <v>616</v>
+      </c>
+      <c r="C412" s="61"/>
+      <c r="D412" s="82"/>
+    </row>
+    <row r="413" spans="1:21" ht="319" x14ac:dyDescent="0.35">
+      <c r="A413" s="81"/>
+      <c r="B413" s="61" t="s">
+        <v>615</v>
+      </c>
+      <c r="C413" s="61" t="s">
+        <v>613</v>
+      </c>
+      <c r="D413" s="82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A414" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="B414" s="86"/>
+      <c r="C414" s="79"/>
+      <c r="D414" s="80"/>
+    </row>
+    <row r="415" spans="1:21" ht="377" x14ac:dyDescent="0.35">
+      <c r="A415" s="81"/>
+      <c r="C415" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="D415" s="82"/>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A416" s="78" t="s">
+        <v>607</v>
+      </c>
+      <c r="B416" s="86"/>
+      <c r="C416" s="87"/>
+      <c r="D416" s="80"/>
+    </row>
+    <row r="417" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A417" s="81"/>
+      <c r="C417" s="61" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A411" s="79" t="s">
+      <c r="D417" s="82"/>
+    </row>
+    <row r="418" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A418" s="81"/>
+      <c r="C418" s="61" t="s">
+        <v>609</v>
+      </c>
+      <c r="D418" s="82"/>
+    </row>
+    <row r="419" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A419" s="81"/>
+      <c r="C419" s="61" t="s">
+        <v>610</v>
+      </c>
+      <c r="D419" s="82"/>
+    </row>
+    <row r="420" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A420" s="81"/>
+      <c r="C420" s="61" t="s">
+        <v>611</v>
+      </c>
+      <c r="D420" s="82"/>
+    </row>
+    <row r="421" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A421" s="88" t="s">
         <v>420</v>
       </c>
-      <c r="B411" s="87" t="s">
-        <v>622</v>
-      </c>
-      <c r="C411" s="80"/>
-      <c r="D411" s="81"/>
-    </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A412" s="89" t="s">
-        <v>618</v>
-      </c>
-      <c r="C412" s="61"/>
-      <c r="D412" s="83"/>
-    </row>
-    <row r="413" spans="1:21" ht="319" x14ac:dyDescent="0.35">
-      <c r="A413" s="82"/>
-      <c r="B413" s="61" t="s">
-        <v>617</v>
-      </c>
-      <c r="C413" s="61" t="s">
-        <v>615</v>
-      </c>
-      <c r="D413" s="83" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A414" s="79" t="s">
-        <v>620</v>
-      </c>
-      <c r="B414" s="87"/>
-      <c r="C414" s="80"/>
-      <c r="D414" s="81"/>
-    </row>
-    <row r="415" spans="1:21" ht="377" x14ac:dyDescent="0.35">
-      <c r="A415" s="82"/>
-      <c r="C415" s="61" t="s">
-        <v>621</v>
-      </c>
-      <c r="D415" s="83"/>
-    </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A416" s="79" t="s">
-        <v>609</v>
-      </c>
-      <c r="B416" s="87"/>
-      <c r="C416" s="88"/>
-      <c r="D416" s="81"/>
-    </row>
-    <row r="417" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A417" s="82"/>
-      <c r="C417" s="61" t="s">
-        <v>610</v>
-      </c>
-      <c r="D417" s="83"/>
-    </row>
-    <row r="418" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A418" s="82"/>
-      <c r="C418" s="61" t="s">
-        <v>611</v>
-      </c>
-      <c r="D418" s="83"/>
-    </row>
-    <row r="419" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A419" s="82"/>
-      <c r="C419" s="61" t="s">
-        <v>612</v>
-      </c>
-      <c r="D419" s="83"/>
-    </row>
-    <row r="420" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A420" s="82"/>
-      <c r="C420" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="D420" s="83"/>
-    </row>
-    <row r="421" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A421" s="89" t="s">
-        <v>420</v>
-      </c>
       <c r="B421" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C421" s="61"/>
+      <c r="D421" s="82"/>
+    </row>
+    <row r="422" spans="1:21" ht="319" x14ac:dyDescent="0.35">
+      <c r="A422" s="83"/>
+      <c r="B422" s="89" t="s">
+        <v>625</v>
+      </c>
+      <c r="C422" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="D422" s="85"/>
+    </row>
+    <row r="423" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A423" s="88" t="s">
+        <v>631</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C423" s="61"/>
+      <c r="D423" s="82"/>
+    </row>
+    <row r="424" spans="1:21" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A424" s="83"/>
+      <c r="B424" s="84" t="s">
         <v>628</v>
       </c>
-      <c r="C421" s="61"/>
-      <c r="D421" s="83"/>
-    </row>
-    <row r="422" spans="1:21" ht="319" x14ac:dyDescent="0.35">
-      <c r="A422" s="84"/>
-      <c r="B422" s="90" t="s">
+      <c r="C424" s="84" t="s">
         <v>627</v>
       </c>
-      <c r="C422" s="85" t="s">
-        <v>626</v>
-      </c>
-      <c r="D422" s="86"/>
-    </row>
-    <row r="423" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A423" s="89" t="s">
-        <v>633</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C423" s="61"/>
-      <c r="D423" s="83"/>
-    </row>
-    <row r="424" spans="1:21" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A424" s="84"/>
-      <c r="B424" s="85" t="s">
-        <v>630</v>
-      </c>
-      <c r="C424" s="85" t="s">
-        <v>629</v>
-      </c>
-      <c r="D424" s="86"/>
+      <c r="D424" s="85"/>
     </row>
     <row r="425" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A425" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B425" s="36"/>
-      <c r="C425" s="91" t="s">
-        <v>614</v>
+      <c r="C425" s="90" t="s">
+        <v>612</v>
       </c>
       <c r="D425" s="38"/>
     </row>
     <row r="426" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A426" s="35" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B426" s="36"/>
-      <c r="C426" s="91" t="s">
-        <v>635</v>
+      <c r="C426" s="90" t="s">
+        <v>633</v>
       </c>
       <c r="D426" s="38"/>
     </row>
     <row r="427" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A427" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="B427" s="36" t="s">
         <v>636</v>
       </c>
-      <c r="B427" s="36" t="s">
-        <v>638</v>
-      </c>
-      <c r="C427" s="91" t="s">
-        <v>637</v>
+      <c r="C427" s="90" t="s">
+        <v>635</v>
       </c>
       <c r="D427" s="38"/>
     </row>
@@ -15792,99 +15803,99 @@
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C431" s="62"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C433" s="94" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="C433" s="93" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C434" s="94" t="s">
-        <v>653</v>
+        <v>646</v>
+      </c>
+      <c r="C434" s="93" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C435" s="93" t="s">
         <v>649</v>
-      </c>
-      <c r="C435" s="94" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C437" s="95" t="s">
-        <v>652</v>
+        <v>645</v>
+      </c>
+      <c r="C437" s="94" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C438" s="95" t="s">
-        <v>656</v>
+        <v>646</v>
+      </c>
+      <c r="C438" s="94" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C439" s="94" t="s">
-        <v>654</v>
+        <v>647</v>
+      </c>
+      <c r="C439" s="93" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C441" s="94" t="s">
-        <v>652</v>
+        <v>645</v>
+      </c>
+      <c r="C441" s="93" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C442" s="95" t="s">
-        <v>657</v>
+        <v>646</v>
+      </c>
+      <c r="C442" s="94" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C443" s="94" t="s">
-        <v>654</v>
+        <v>647</v>
+      </c>
+      <c r="C443" s="93" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A101" r:id="rId1" xr:uid="{0889BDC3-4461-49B7-B3A7-5234BAE0C9D2}"/>
   </hyperlinks>

--- a/3 четверть_2_Java Development Kit.xlsx
+++ b/3 четверть_2_Java Development Kit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710103B2-4FC6-4B4E-8CD5-81BAF24887A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D70FD9-2A31-4F1F-92CE-9F83E8A4C3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10053,12 +10053,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10622,29 +10630,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10656,13 +10664,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10671,61 +10679,61 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10734,10 +10742,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10746,34 +10763,34 @@
     <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10782,7 +10799,19 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10791,40 +10820,19 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10833,7 +10841,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10851,7 +10859,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -10860,7 +10868,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10875,7 +10883,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10884,7 +10892,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10893,7 +10901,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10905,13 +10916,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12217,8 +12225,8 @@
   </sheetPr>
   <dimension ref="A1:U443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15895,7 +15903,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A101" r:id="rId1" xr:uid="{0889BDC3-4461-49B7-B3A7-5234BAE0C9D2}"/>
   </hyperlinks>
